--- a/ActiTime/data/TestScripts.xlsx
+++ b/ActiTime/data/TestScripts.xlsx
@@ -10,10 +10,11 @@
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="CreateCustomer" sheetId="2" r:id="rId2"/>
     <sheet name="DeleteCustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="SearchCustomer" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -115,9 +116,6 @@
     <t>Kotak</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>1. Login toapplication
 2.Click ontask tab
 3. enter the customer name in search text box
@@ -136,11 +134,50 @@
   <si>
     <t>online banking</t>
   </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Customer search will show positive result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to application
+2. Click on task menu tab
+3. Search for the customer by entering customer name in search box
+4. Customer will be serched and highlighted
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to application
+2. Click on task menu tab
+3. Search for the customer by entering customer name in search box
+4. Customer search will fail
+</t>
+  </si>
+  <si>
+    <t>Customer search shows negative results</t>
+  </si>
+  <si>
+    <t>Canara</t>
+  </si>
+  <si>
+    <t>to be updated</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,21 +492,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="55.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="55.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -512,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
@@ -532,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
@@ -546,13 +583,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
@@ -566,13 +603,53 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -590,11 +667,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -611,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,7 +699,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -636,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -652,13 +729,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -688,4 +765,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>